--- a/Izvedbeni plan 23 24.xlsx
+++ b/Izvedbeni plan 23 24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PREDAVANJA\NapRacOrodja_ULFS\NapRacOr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D3FF338-9DC0-42C9-8517-DEDB421E2994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA99647-7E50-4C91-BD5C-D71A49469D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
   <si>
     <t>teden</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>Projekt</t>
+  </si>
+  <si>
+    <t>22.0.1.2024</t>
+  </si>
+  <si>
+    <t>Oddaja projekta</t>
   </si>
 </sst>
 </file>
@@ -557,7 +563,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,6 +888,15 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="F18" t="s">
         <v>37</v>
       </c>

--- a/Izvedbeni plan 23 24.xlsx
+++ b/Izvedbeni plan 23 24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PREDAVANJA\NapRacOrodja_ULFS\NapRacOr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA99647-7E50-4C91-BD5C-D71A49469D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689DE4AA-C302-4513-AAA8-865D65EE304D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Izvedbeni plan 23 24.xlsx
+++ b/Izvedbeni plan 23 24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PREDAVANJA\NapRacOrodja_ULFS\NapRacOr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689DE4AA-C302-4513-AAA8-865D65EE304D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA99647-7E50-4C91-BD5C-D71A49469D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
